--- a/pone.0206527.s002.xlsx
+++ b/pone.0206527.s002.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anumfasih/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Universidad\TFG\TFG-Sepsis2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6CE3C1-1B2E-624C-9477-578C8F908DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35726636-73B0-40E9-B18C-7842B3B08AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="460" windowWidth="10000" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -94,110 +105,110 @@
     <t>3 = &lt;200</t>
   </si>
   <si>
-    <t>1 = Patient improves and is discharged;</t>
-  </si>
-  <si>
-    <t>2 = Patient dies on the ward floor;</t>
-  </si>
-  <si>
-    <t>3 = Patient is admitted to or transferred to the ICU and dies;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 = Patient is admitted to or transferred to the ICU, improves and is subsequently discharged.
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestive Heart Failure (CHF) </t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure</t>
+  </si>
+  <si>
+    <t>Urine output/24 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes Mellitus (DM) </t>
+  </si>
+  <si>
+    <t>Hypertension (HTN)</t>
+  </si>
+  <si>
+    <t>Chronic Obstructive Pulmonary Disease (COPD)</t>
+  </si>
+  <si>
+    <t>Coronary Artery Disease (CAD)</t>
+  </si>
+  <si>
+    <t>Chronic Kidney Disease without dialysis (CKD w/o dialysis)</t>
+  </si>
+  <si>
+    <t>Chronic Kidney Disease with dialysis (CKD with dialysis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atrial fibrillation (Afib) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulmonary Embolism (PE) </t>
+  </si>
+  <si>
+    <t>Arterial pressure of oxygen [PaO2 (mmHg)]</t>
+  </si>
+  <si>
+    <t>Fraction of inspired oxygen [FiO2 (%)]</t>
+  </si>
+  <si>
+    <t>Anatomical site</t>
+  </si>
+  <si>
+    <t>1 = PNA</t>
+  </si>
+  <si>
+    <t>2 = UTI</t>
+  </si>
+  <si>
+    <t>3 = MSK</t>
+  </si>
+  <si>
+    <t>4 = Brain</t>
+  </si>
+  <si>
+    <t>5 = Heart</t>
+  </si>
+  <si>
+    <t>6 = GI</t>
+  </si>
+  <si>
+    <t>Extent of infection</t>
+  </si>
+  <si>
+    <t>1 = Bacteremia</t>
+  </si>
+  <si>
+    <t>2 = Focal infection</t>
+  </si>
+  <si>
+    <t>3 = unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 = unspecified </t>
+  </si>
+  <si>
+    <t>4 = viral</t>
+  </si>
+  <si>
+    <t>Microorganism</t>
+  </si>
+  <si>
+    <t>1 = Gram positive</t>
+  </si>
+  <si>
+    <t>2 = Gram negative</t>
+  </si>
+  <si>
+    <t>1 = Patient improves and is discharged; El paciente mejora y le dan el alta médica;</t>
+  </si>
+  <si>
+    <t>2 = Patient dies on the ward floor;Paciente muere al llegar ;</t>
+  </si>
+  <si>
+    <t>3 = Patient is admitted to or transferred to the ICU and dies; Paciente trasladado a UCI y muere;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 = Patient is admitted to or transferred to the ICU, improves and is subsequently discharged; Paciente trasladado a UCI, se recupera y le dan el alta médica;
 </t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congestive Heart Failure (CHF) </t>
-  </si>
-  <si>
-    <t>Glasgow Coma Scale</t>
-  </si>
-  <si>
-    <t>Mean Arterial Pressure</t>
-  </si>
-  <si>
-    <t>Urine output/24 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes Mellitus (DM) </t>
-  </si>
-  <si>
-    <t>Hypertension (HTN)</t>
-  </si>
-  <si>
-    <t>Chronic Obstructive Pulmonary Disease (COPD)</t>
-  </si>
-  <si>
-    <t>Coronary Artery Disease (CAD)</t>
-  </si>
-  <si>
-    <t>Chronic Kidney Disease without dialysis (CKD w/o dialysis)</t>
-  </si>
-  <si>
-    <t>Chronic Kidney Disease with dialysis (CKD with dialysis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atrial fibrillation (Afib) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulmonary Embolism (PE) </t>
-  </si>
-  <si>
-    <t>Arterial pressure of oxygen [PaO2 (mmHg)]</t>
-  </si>
-  <si>
-    <t>Fraction of inspired oxygen [FiO2 (%)]</t>
-  </si>
-  <si>
-    <t>Anatomical site</t>
-  </si>
-  <si>
-    <t>1 = PNA</t>
-  </si>
-  <si>
-    <t>2 = UTI</t>
-  </si>
-  <si>
-    <t>3 = MSK</t>
-  </si>
-  <si>
-    <t>4 = Brain</t>
-  </si>
-  <si>
-    <t>5 = Heart</t>
-  </si>
-  <si>
-    <t>6 = GI</t>
-  </si>
-  <si>
-    <t>Extent of infection</t>
-  </si>
-  <si>
-    <t>1 = Bacteremia</t>
-  </si>
-  <si>
-    <t>2 = Focal infection</t>
-  </si>
-  <si>
-    <t>3 = unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 = unspecified </t>
-  </si>
-  <si>
-    <t>4 = viral</t>
-  </si>
-  <si>
-    <t>Microorganism</t>
-  </si>
-  <si>
-    <t>1 = Gram positive</t>
-  </si>
-  <si>
-    <t>2 = Gram negative</t>
   </si>
 </sst>
 </file>
@@ -302,14 +313,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -317,21 +327,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,7 +345,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,21 +627,21 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
-    <col min="24" max="24" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" customWidth="1"/>
+    <col min="16" max="16" width="12.296875" customWidth="1"/>
+    <col min="24" max="24" width="32.69921875" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" customWidth="1"/>
+    <col min="27" max="27" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" ht="121" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="110.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,96 +651,96 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="16"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="13" t="s">
+      <c r="R1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="13" t="s">
+      <c r="V1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>39</v>
+      <c r="Y1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>14</v>
@@ -757,9 +760,9 @@
         <v>18</v>
       </c>
       <c r="W2" s="3"/>
-      <c r="X2" s="13"/>
-    </row>
-    <row r="3" spans="1:27" ht="35" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="1:27" ht="47.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -799,20 +802,20 @@
       <c r="V3" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="14" t="s">
-        <v>21</v>
+      <c r="X3" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="Y3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -852,57 +855,57 @@
       <c r="V4" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>22</v>
+      <c r="X4" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="Y4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="46.8" x14ac:dyDescent="0.3">
       <c r="V5" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="14" t="s">
-        <v>23</v>
+      <c r="X5" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Y5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X6" s="14" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="79.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="Y7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="Y8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="Y9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -923,9 +926,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>LOG(0.12/0.88)</f>
         <v>-0.86530142610254379</v>
@@ -935,7 +938,7 @@
         <v>-1.6774004430040013</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>LN(0.12/0.88)</f>
         <v>-1.9924301646902063</v>
@@ -949,25 +952,25 @@
         <v>3.4831004430040013</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D6">
         <f>D5/0.0179</f>
         <v>7.1675977653631335</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>LN(0.14791/(1-0.14791))</f>
         <v>-1.7510881743699966</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <f>1.8057-1.75109</f>
         <v>5.4610000000000047E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <f>B8/0.0179</f>
         <v>3.0508379888268182</v>
